--- a/config/DE-PARA.xlsx
+++ b/config/DE-PARA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.duzzi\Desktop\DE-PARA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.duzzi\Documents\Projetos\Conciliacao Bancaria\HMPX---Bancario\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE46C02-E8EE-4959-A57D-B4193921DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF9FCBF-437A-4E3F-BC02-57DD666DB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D95E0A3B-BAA0-487C-8189-649494419FBA}"/>
   </bookViews>
@@ -25,87 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
   <si>
     <t>codigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCALIZA RENT A CAR S/A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKU IMPORTADOS LTDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CICAMPO MAQUINAS E FERRAMENTAS LTDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDR SHOP COMERCIO ELETRONICO LTDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIBROSYSTEM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARINA CRISTINA MOREIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEONARDO GIOVANINI PERTICARRARI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIARI INFORMATICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS CESAR GOMES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAINE MIRELY FERREIRA PEREIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAREZ FELIX PEREIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARISTELA PEREIRA DA SILVA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SICHIERI FERRAMENTAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA BEZERRA DE CARVALHO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASOLDAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIPER LOCADORA DE VEICULOS LTDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACIS DE SERTAOZINHO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREFEITURA DE SERTAOZINHO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAEMAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINSER FERRAMENTAS DIAMANTADAS LTDA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURITI HOTEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRAGA E FRAGA LTDA (FRANQUIA CORREIOS) </t>
-  </si>
-  <si>
-    <t>CARTAO DE CREDITO/DEBITO - BANCO DO BRASIL</t>
-  </si>
-  <si>
-    <t>COPERCANA-POSTO-SERTAOZINHO</t>
-  </si>
-  <si>
-    <t>CPFL - COMPANHIA PAULISTA DE FORCA E LUZ</t>
   </si>
 </sst>
 </file>
@@ -468,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76EAB53-56EC-46A0-A0AC-D0B1D341AC6D}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,246 +410,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>101010</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>101010</v>
-      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30">
-        <v>101010</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>101010</v>
-      </c>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122">

--- a/config/DE-PARA.xlsx
+++ b/config/DE-PARA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo.duzzi\Documents\Projetos\Conciliacao Bancaria\HMPX---Bancario\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF9FCBF-437A-4E3F-BC02-57DD666DB777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5544A003-1D72-40B0-A9A2-9EEEE90FEE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D95E0A3B-BAA0-487C-8189-649494419FBA}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">nome </t>
   </si>
   <si>
     <t>codigo</t>
+  </si>
+  <si>
+    <t>PIX ENTRE CONTAS</t>
   </si>
 </sst>
 </file>
@@ -393,13 +396,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76EAB53-56EC-46A0-A0AC-D0B1D341AC6D}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -410,6 +414,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
     </row>
